--- a/Data/Misc.xlsx
+++ b/Data/Misc.xlsx
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="Timing" sheetId="1" r:id="rId1"/>
     <sheet name="Test Points" sheetId="2" r:id="rId2"/>
-    <sheet name="TUBES" sheetId="3" r:id="rId3"/>
+    <sheet name="Tubes" sheetId="3" r:id="rId3"/>
+    <sheet name="Batteries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Part Number</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Manufacturer Part Number 3</t>
   </si>
   <si>
-    <t>MSS800-0000</t>
-  </si>
-  <si>
     <t>Dual Triode</t>
   </si>
   <si>
@@ -207,13 +205,16 @@
   </si>
   <si>
     <t>9V Battery snaps, wires at connector end, inline</t>
+  </si>
+  <si>
+    <t>TIM-0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -223,10 +224,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -253,11 +250,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -572,11 +568,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +634,8 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
+      <c r="A2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -647,360 +645,520 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L20"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
+      <c r="K2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="4"/>
+      <c r="K5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
